--- a/Manual Testing_final_project/Test Cases_export.xlsx
+++ b/Manual Testing_final_project/Test Cases_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anca&amp;Dorin\Desktop\Final Project ITF\ITF Manual_Testing_portofolio\Manual Testing_final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E3BCDF-4B6B-467C-8DE0-FCF3610E10FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2263C4CD-F1C1-4F83-AF7F-134F7DF38961}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6345" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="391">
   <si>
     <t>issuekey</t>
   </si>
@@ -311,9 +311,6 @@
 Click “Save” button once completed.
 Once you click Save button the employee is added on Employee List.
 Once you click “Save”, the Personal Details section of the employee you created will automatically appear.</t>
-  </si>
-  <si>
-    <t>[Personal Details Section] check that the informations you entered are correctly saved</t>
   </si>
   <si>
     <t>0</t>
@@ -1337,6 +1334,9 @@
   <si>
     <t>Add Employee section is visible to the end user.
 Add Employee section must turn grey when selected</t>
+  </si>
+  <si>
+    <t>[Personal Details Section] Check that the informations you entered are correctly saved</t>
   </si>
 </sst>
 </file>
@@ -1444,6 +1444,1611 @@
   </cellStyles>
   <dxfs count="74">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1476,1611 +3081,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3095,82 +3095,82 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4DCDCAB-C480-4A18-9F0D-1B2FA6FF9718}" name="Table2" displayName="Table2" ref="A1:BU75" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4DCDCAB-C480-4A18-9F0D-1B2FA6FF9718}" name="Table2" displayName="Table2" ref="A1:BU75" totalsRowShown="0" headerRowDxfId="73">
   <autoFilter ref="A1:BU75" xr:uid="{B9AA54BF-1A9E-427F-8E8B-70935B1B7A03}"/>
   <tableColumns count="73">
-    <tableColumn id="1" xr3:uid="{6BFA72D3-4AF7-4613-9356-339CA8CD9518}" name="issuekey" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{72702210-722F-468F-BD5D-64C00C6D7899}" name="Summary" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{1831372A-2F24-4276-AF18-994C462C3FF7}" name="TestStep" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{7F26195E-E854-4E8A-B2EF-71B0A054726F}" name="Test Data" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{E501B28B-7F1A-4677-8886-96822E0C3541}" name="Test Result" dataDxfId="69"/>
-    <tableColumn id="6" xr3:uid="{78F3ABAB-A648-42AF-8936-1C11E80579D6}" name="Status Category Changed" dataDxfId="68"/>
-    <tableColumn id="7" xr3:uid="{0E2315A1-D903-404A-A089-CFCF048629DE}" name="Issue Type" dataDxfId="67"/>
-    <tableColumn id="8" xr3:uid="{8327B0BA-C357-42B2-AB9F-6FA45B4F8846}" name="Time Spent" dataDxfId="66"/>
-    <tableColumn id="9" xr3:uid="{526429AC-AEF9-4114-A14B-699A5885645E}" name="Approvals" dataDxfId="65"/>
-    <tableColumn id="10" xr3:uid="{36EA3A92-090F-4729-B6C4-B191678B818B}" name="Project" dataDxfId="64"/>
-    <tableColumn id="11" xr3:uid="{044550B5-FCB2-414B-A236-210F629E6239}" name="Fix versions" dataDxfId="63"/>
-    <tableColumn id="12" xr3:uid="{28E8C246-A5AA-483E-9CC6-3A976E8DB996}" name="Σ Time Spent" dataDxfId="62"/>
-    <tableColumn id="13" xr3:uid="{58FA12EA-A681-435D-BC17-AEDBDA42F135}" name="Approver groups" dataDxfId="61"/>
-    <tableColumn id="14" xr3:uid="{D1E12390-213A-4262-A4E1-0A2F90A5A3DC}" name="Resolution" dataDxfId="60"/>
-    <tableColumn id="15" xr3:uid="{D2BE823A-CC42-4661-880E-045A7A094B5F}" name="Affected services" dataDxfId="59"/>
-    <tableColumn id="16" xr3:uid="{582C0B6B-A4DC-4941-A5EC-6611F3F44758}" name="Time to resolution" dataDxfId="58"/>
-    <tableColumn id="17" xr3:uid="{E8ED4B9A-7845-42B3-A5D9-105C71436318}" name="Time to first response" dataDxfId="57"/>
-    <tableColumn id="18" xr3:uid="{E87FCD12-4069-40AD-B749-A1938C38334D}" name="Request participants" dataDxfId="56"/>
-    <tableColumn id="19" xr3:uid="{8DBC724B-161D-4B57-9E4B-30B978093C12}" name="Satisfaction" dataDxfId="55"/>
-    <tableColumn id="20" xr3:uid="{29F201DE-0A1F-4EB4-BC31-B0B535BB9B27}" name="Satisfaction date" dataDxfId="54"/>
-    <tableColumn id="21" xr3:uid="{72BF692E-D39E-4314-B62C-0DD0F48A67B6}" name="Resolved" dataDxfId="53"/>
-    <tableColumn id="22" xr3:uid="{54CA637E-750A-4362-B4D0-E0E4B70C0069}" name="Work Ratio" dataDxfId="52"/>
-    <tableColumn id="23" xr3:uid="{9BB4438E-4ECB-43C5-B658-A9F6617A3F44}" name="Last Viewed" dataDxfId="51"/>
-    <tableColumn id="24" xr3:uid="{EA9D1CC0-47E8-4C2A-8E77-247C12B9C58A}" name="Watchers" dataDxfId="50"/>
-    <tableColumn id="25" xr3:uid="{FD4F581D-A361-493C-8F96-B0B729A0D206}" name="Created" dataDxfId="49"/>
-    <tableColumn id="26" xr3:uid="{9CB40414-C3CE-4754-94F7-90B52C76B467}" name="Sprint" dataDxfId="48"/>
-    <tableColumn id="27" xr3:uid="{D1F2CB11-94A9-45BD-B0D7-FBFFC0B0837D}" name="Flagged" dataDxfId="47"/>
-    <tableColumn id="28" xr3:uid="{B3A59BF5-4E4A-45FA-B52B-FC0CEB3CB2DD}" name="Target start" dataDxfId="46"/>
-    <tableColumn id="29" xr3:uid="{8A1DAB77-482D-41DD-90AC-7EAE2B551D1A}" name="Priority" dataDxfId="45"/>
-    <tableColumn id="30" xr3:uid="{6FAA4909-8096-4E49-AD6E-3B76196C4729}" name="Target end" dataDxfId="44"/>
-    <tableColumn id="31" xr3:uid="{8B607C31-E564-47BB-9C0E-85618ED02017}" name="[CHART] Date of First Response" dataDxfId="43"/>
-    <tableColumn id="32" xr3:uid="{0F2EC31C-FCCD-49BC-BB6E-6A0B2796F4F0}" name="[CHART] Time in Status" dataDxfId="42"/>
-    <tableColumn id="33" xr3:uid="{E3393C30-249A-4644-AFC2-BBDA606A6BE7}" name="Labels" dataDxfId="41"/>
-    <tableColumn id="34" xr3:uid="{6E514EFD-FF56-4C78-813B-B7B53C00B051}" name="Work category" dataDxfId="40"/>
-    <tableColumn id="35" xr3:uid="{C13F9A4C-26A0-476E-A6D5-336EFD5692C3}" name="Story point estimate" dataDxfId="39"/>
-    <tableColumn id="36" xr3:uid="{08983956-C6B2-4762-A026-8287E308CF0A}" name="Issue color" dataDxfId="38"/>
-    <tableColumn id="37" xr3:uid="{FEDD6F8E-2685-4916-A73B-2EF22D3FF92F}" name="Parent Link" dataDxfId="37"/>
-    <tableColumn id="38" xr3:uid="{BBA6BECF-FAB0-4CA8-8813-3CA8A7F871AC}" name="Rank" dataDxfId="36"/>
-    <tableColumn id="39" xr3:uid="{DA8841E3-9F75-41F2-A64C-0AD8A8C3C144}" name="Remaining Estimate" dataDxfId="35"/>
-    <tableColumn id="40" xr3:uid="{2A66A264-891B-4FBD-9E2E-04438DD9B70F}" name="Σ Original Estimate" dataDxfId="34"/>
-    <tableColumn id="41" xr3:uid="{58D2F6C4-AB3C-49FC-9765-B19F4C83F6FA}" name="Affects versions" dataDxfId="33"/>
-    <tableColumn id="42" xr3:uid="{CF761157-2A7D-48AE-B0CA-7707763DFEE9}" name="Linked Issues" dataDxfId="32"/>
-    <tableColumn id="43" xr3:uid="{5B8BCF42-3B0D-4BCE-BF24-EFEBDC984678}" name="Assignee" dataDxfId="31"/>
-    <tableColumn id="44" xr3:uid="{3419D793-538C-4B62-838E-B6DF9E4459D9}" name="Updated" dataDxfId="30"/>
-    <tableColumn id="45" xr3:uid="{32A93AB1-2316-4D70-AC4F-DD2B208991E6}" name="Status" dataDxfId="29"/>
-    <tableColumn id="46" xr3:uid="{547A85A4-A2F3-44FB-AA48-1F010E0237A3}" name="Components" dataDxfId="28"/>
-    <tableColumn id="47" xr3:uid="{91D2B9DB-32B4-4081-83AE-DAA76F7E767B}" name="Original estimate" dataDxfId="27"/>
-    <tableColumn id="48" xr3:uid="{61A58C38-0251-4CAD-AE7C-25A846D303C8}" name="Description" dataDxfId="26"/>
-    <tableColumn id="49" xr3:uid="{4BA322CB-47DC-457E-B836-6A09AFF31B62}" name="Request Type" dataDxfId="25"/>
-    <tableColumn id="50" xr3:uid="{26F1C189-E23B-4836-B1A0-6B4931E61E6C}" name="Epic Link" dataDxfId="24"/>
-    <tableColumn id="51" xr3:uid="{9AAB7196-8B92-476E-B4BE-BE5C29B38769}" name="Start date" dataDxfId="23"/>
-    <tableColumn id="52" xr3:uid="{311887D3-379B-4635-92FF-0031DC42E94F}" name="Change type" dataDxfId="22"/>
-    <tableColumn id="53" xr3:uid="{941D62CD-4516-46AB-9A14-7D65B6E73FF7}" name="Change risk" dataDxfId="21"/>
-    <tableColumn id="54" xr3:uid="{F5B6FF05-6258-4166-B904-8510A77FC5F9}" name="Security Level" dataDxfId="20"/>
-    <tableColumn id="55" xr3:uid="{94D221CF-7FC7-4131-B104-9C18E33073A8}" name="Change reason" dataDxfId="19"/>
-    <tableColumn id="56" xr3:uid="{EA565CE0-82AF-4774-8A59-CDEAF119D958}" name="Actual start" dataDxfId="18"/>
-    <tableColumn id="57" xr3:uid="{7399AC56-4152-4079-A392-C81945CF412C}" name="Σ Remaining Estimate" dataDxfId="17"/>
-    <tableColumn id="58" xr3:uid="{9873CAA4-777F-4744-BBF1-72ACBAED7499}" name="Actual end" dataDxfId="16"/>
-    <tableColumn id="59" xr3:uid="{194EBC4B-81D5-4128-BF32-5171C686BB70}" name="Creator" dataDxfId="15"/>
-    <tableColumn id="60" xr3:uid="{470EE46E-1EA2-49CC-BB5F-5C79BC0C07C8}" name="Sub-tasks" dataDxfId="14"/>
-    <tableColumn id="61" xr3:uid="{1B28909B-31AD-4F86-98C4-356182899A50}" name="Reporter" dataDxfId="13"/>
-    <tableColumn id="62" xr3:uid="{5230B469-BB89-439B-A953-29DE4C2886F6}" name="Σ Progress" dataDxfId="12"/>
-    <tableColumn id="63" xr3:uid="{837476F4-7F00-425E-95B9-8C6E0A13EA85}" name="Development" dataDxfId="11"/>
-    <tableColumn id="64" xr3:uid="{2FC36DDF-25BA-4912-84AB-4A7717ED1653}" name="Team" dataDxfId="10"/>
-    <tableColumn id="65" xr3:uid="{7C96AB1E-FBEC-4599-B53F-DD58B5E995C2}" name="Organizations" dataDxfId="9"/>
-    <tableColumn id="66" xr3:uid="{22246C97-D9D9-45EF-8721-70512DEB60F3}" name="Approvers" dataDxfId="8"/>
-    <tableColumn id="67" xr3:uid="{370E6E12-E7F1-42AE-9860-180B9A7C2DB3}" name="Impact" dataDxfId="7"/>
-    <tableColumn id="68" xr3:uid="{DD1A1878-A871-41F6-9432-BA2BDC78C594}" name="Request language" dataDxfId="6"/>
-    <tableColumn id="69" xr3:uid="{CAFA48F7-3E71-4ABF-85AA-C204BEFB416D}" name="Responders" dataDxfId="5"/>
-    <tableColumn id="70" xr3:uid="{FFAC0A05-E364-43AA-92BA-93429634A70E}" name="Environment" dataDxfId="4"/>
-    <tableColumn id="71" xr3:uid="{CB472E9D-8FEA-47A6-AF70-2770CECC57E9}" name="Due date" dataDxfId="3"/>
-    <tableColumn id="72" xr3:uid="{0FE3B882-1D5C-4AEF-9A09-D55BCFA62810}" name="Progress" dataDxfId="2"/>
-    <tableColumn id="73" xr3:uid="{4AA73C79-27B6-45A1-9293-5C87DD4047D6}" name="Votes" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{6BFA72D3-4AF7-4613-9356-339CA8CD9518}" name="issuekey" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{72702210-722F-468F-BD5D-64C00C6D7899}" name="Summary" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{1831372A-2F24-4276-AF18-994C462C3FF7}" name="TestStep" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{7F26195E-E854-4E8A-B2EF-71B0A054726F}" name="Test Data" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{E501B28B-7F1A-4677-8886-96822E0C3541}" name="Test Result" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{78F3ABAB-A648-42AF-8936-1C11E80579D6}" name="Status Category Changed" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{0E2315A1-D903-404A-A089-CFCF048629DE}" name="Issue Type" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{8327B0BA-C357-42B2-AB9F-6FA45B4F8846}" name="Time Spent" dataDxfId="65"/>
+    <tableColumn id="9" xr3:uid="{526429AC-AEF9-4114-A14B-699A5885645E}" name="Approvals" dataDxfId="64"/>
+    <tableColumn id="10" xr3:uid="{36EA3A92-090F-4729-B6C4-B191678B818B}" name="Project" dataDxfId="63"/>
+    <tableColumn id="11" xr3:uid="{044550B5-FCB2-414B-A236-210F629E6239}" name="Fix versions" dataDxfId="62"/>
+    <tableColumn id="12" xr3:uid="{28E8C246-A5AA-483E-9CC6-3A976E8DB996}" name="Σ Time Spent" dataDxfId="61"/>
+    <tableColumn id="13" xr3:uid="{58FA12EA-A681-435D-BC17-AEDBDA42F135}" name="Approver groups" dataDxfId="60"/>
+    <tableColumn id="14" xr3:uid="{D1E12390-213A-4262-A4E1-0A2F90A5A3DC}" name="Resolution" dataDxfId="59"/>
+    <tableColumn id="15" xr3:uid="{D2BE823A-CC42-4661-880E-045A7A094B5F}" name="Affected services" dataDxfId="58"/>
+    <tableColumn id="16" xr3:uid="{582C0B6B-A4DC-4941-A5EC-6611F3F44758}" name="Time to resolution" dataDxfId="57"/>
+    <tableColumn id="17" xr3:uid="{E8ED4B9A-7845-42B3-A5D9-105C71436318}" name="Time to first response" dataDxfId="56"/>
+    <tableColumn id="18" xr3:uid="{E87FCD12-4069-40AD-B749-A1938C38334D}" name="Request participants" dataDxfId="55"/>
+    <tableColumn id="19" xr3:uid="{8DBC724B-161D-4B57-9E4B-30B978093C12}" name="Satisfaction" dataDxfId="54"/>
+    <tableColumn id="20" xr3:uid="{29F201DE-0A1F-4EB4-BC31-B0B535BB9B27}" name="Satisfaction date" dataDxfId="53"/>
+    <tableColumn id="21" xr3:uid="{72BF692E-D39E-4314-B62C-0DD0F48A67B6}" name="Resolved" dataDxfId="52"/>
+    <tableColumn id="22" xr3:uid="{54CA637E-750A-4362-B4D0-E0E4B70C0069}" name="Work Ratio" dataDxfId="51"/>
+    <tableColumn id="23" xr3:uid="{9BB4438E-4ECB-43C5-B658-A9F6617A3F44}" name="Last Viewed" dataDxfId="50"/>
+    <tableColumn id="24" xr3:uid="{EA9D1CC0-47E8-4C2A-8E77-247C12B9C58A}" name="Watchers" dataDxfId="49"/>
+    <tableColumn id="25" xr3:uid="{FD4F581D-A361-493C-8F96-B0B729A0D206}" name="Created" dataDxfId="48"/>
+    <tableColumn id="26" xr3:uid="{9CB40414-C3CE-4754-94F7-90B52C76B467}" name="Sprint" dataDxfId="47"/>
+    <tableColumn id="27" xr3:uid="{D1F2CB11-94A9-45BD-B0D7-FBFFC0B0837D}" name="Flagged" dataDxfId="46"/>
+    <tableColumn id="28" xr3:uid="{B3A59BF5-4E4A-45FA-B52B-FC0CEB3CB2DD}" name="Target start" dataDxfId="45"/>
+    <tableColumn id="29" xr3:uid="{8A1DAB77-482D-41DD-90AC-7EAE2B551D1A}" name="Priority" dataDxfId="44"/>
+    <tableColumn id="30" xr3:uid="{6FAA4909-8096-4E49-AD6E-3B76196C4729}" name="Target end" dataDxfId="43"/>
+    <tableColumn id="31" xr3:uid="{8B607C31-E564-47BB-9C0E-85618ED02017}" name="[CHART] Date of First Response" dataDxfId="42"/>
+    <tableColumn id="32" xr3:uid="{0F2EC31C-FCCD-49BC-BB6E-6A0B2796F4F0}" name="[CHART] Time in Status" dataDxfId="41"/>
+    <tableColumn id="33" xr3:uid="{E3393C30-249A-4644-AFC2-BBDA606A6BE7}" name="Labels" dataDxfId="40"/>
+    <tableColumn id="34" xr3:uid="{6E514EFD-FF56-4C78-813B-B7B53C00B051}" name="Work category" dataDxfId="39"/>
+    <tableColumn id="35" xr3:uid="{C13F9A4C-26A0-476E-A6D5-336EFD5692C3}" name="Story point estimate" dataDxfId="38"/>
+    <tableColumn id="36" xr3:uid="{08983956-C6B2-4762-A026-8287E308CF0A}" name="Issue color" dataDxfId="37"/>
+    <tableColumn id="37" xr3:uid="{FEDD6F8E-2685-4916-A73B-2EF22D3FF92F}" name="Parent Link" dataDxfId="36"/>
+    <tableColumn id="38" xr3:uid="{BBA6BECF-FAB0-4CA8-8813-3CA8A7F871AC}" name="Rank" dataDxfId="35"/>
+    <tableColumn id="39" xr3:uid="{DA8841E3-9F75-41F2-A64C-0AD8A8C3C144}" name="Remaining Estimate" dataDxfId="34"/>
+    <tableColumn id="40" xr3:uid="{2A66A264-891B-4FBD-9E2E-04438DD9B70F}" name="Σ Original Estimate" dataDxfId="33"/>
+    <tableColumn id="41" xr3:uid="{58D2F6C4-AB3C-49FC-9765-B19F4C83F6FA}" name="Affects versions" dataDxfId="32"/>
+    <tableColumn id="42" xr3:uid="{CF761157-2A7D-48AE-B0CA-7707763DFEE9}" name="Linked Issues" dataDxfId="31"/>
+    <tableColumn id="43" xr3:uid="{5B8BCF42-3B0D-4BCE-BF24-EFEBDC984678}" name="Assignee" dataDxfId="30"/>
+    <tableColumn id="44" xr3:uid="{3419D793-538C-4B62-838E-B6DF9E4459D9}" name="Updated" dataDxfId="29"/>
+    <tableColumn id="45" xr3:uid="{32A93AB1-2316-4D70-AC4F-DD2B208991E6}" name="Status" dataDxfId="28"/>
+    <tableColumn id="46" xr3:uid="{547A85A4-A2F3-44FB-AA48-1F010E0237A3}" name="Components" dataDxfId="27"/>
+    <tableColumn id="47" xr3:uid="{91D2B9DB-32B4-4081-83AE-DAA76F7E767B}" name="Original estimate" dataDxfId="26"/>
+    <tableColumn id="48" xr3:uid="{61A58C38-0251-4CAD-AE7C-25A846D303C8}" name="Description" dataDxfId="25"/>
+    <tableColumn id="49" xr3:uid="{4BA322CB-47DC-457E-B836-6A09AFF31B62}" name="Request Type" dataDxfId="24"/>
+    <tableColumn id="50" xr3:uid="{26F1C189-E23B-4836-B1A0-6B4931E61E6C}" name="Epic Link" dataDxfId="23"/>
+    <tableColumn id="51" xr3:uid="{9AAB7196-8B92-476E-B4BE-BE5C29B38769}" name="Start date" dataDxfId="22"/>
+    <tableColumn id="52" xr3:uid="{311887D3-379B-4635-92FF-0031DC42E94F}" name="Change type" dataDxfId="21"/>
+    <tableColumn id="53" xr3:uid="{941D62CD-4516-46AB-9A14-7D65B6E73FF7}" name="Change risk" dataDxfId="20"/>
+    <tableColumn id="54" xr3:uid="{F5B6FF05-6258-4166-B904-8510A77FC5F9}" name="Security Level" dataDxfId="19"/>
+    <tableColumn id="55" xr3:uid="{94D221CF-7FC7-4131-B104-9C18E33073A8}" name="Change reason" dataDxfId="18"/>
+    <tableColumn id="56" xr3:uid="{EA565CE0-82AF-4774-8A59-CDEAF119D958}" name="Actual start" dataDxfId="17"/>
+    <tableColumn id="57" xr3:uid="{7399AC56-4152-4079-A392-C81945CF412C}" name="Σ Remaining Estimate" dataDxfId="16"/>
+    <tableColumn id="58" xr3:uid="{9873CAA4-777F-4744-BBF1-72ACBAED7499}" name="Actual end" dataDxfId="15"/>
+    <tableColumn id="59" xr3:uid="{194EBC4B-81D5-4128-BF32-5171C686BB70}" name="Creator" dataDxfId="14"/>
+    <tableColumn id="60" xr3:uid="{470EE46E-1EA2-49CC-BB5F-5C79BC0C07C8}" name="Sub-tasks" dataDxfId="13"/>
+    <tableColumn id="61" xr3:uid="{1B28909B-31AD-4F86-98C4-356182899A50}" name="Reporter" dataDxfId="12"/>
+    <tableColumn id="62" xr3:uid="{5230B469-BB89-439B-A953-29DE4C2886F6}" name="Σ Progress" dataDxfId="11"/>
+    <tableColumn id="63" xr3:uid="{837476F4-7F00-425E-95B9-8C6E0A13EA85}" name="Development" dataDxfId="10"/>
+    <tableColumn id="64" xr3:uid="{2FC36DDF-25BA-4912-84AB-4A7717ED1653}" name="Team" dataDxfId="9"/>
+    <tableColumn id="65" xr3:uid="{7C96AB1E-FBEC-4599-B53F-DD58B5E995C2}" name="Organizations" dataDxfId="8"/>
+    <tableColumn id="66" xr3:uid="{22246C97-D9D9-45EF-8721-70512DEB60F3}" name="Approvers" dataDxfId="7"/>
+    <tableColumn id="67" xr3:uid="{370E6E12-E7F1-42AE-9860-180B9A7C2DB3}" name="Impact" dataDxfId="6"/>
+    <tableColumn id="68" xr3:uid="{DD1A1878-A871-41F6-9432-BA2BDC78C594}" name="Request language" dataDxfId="5"/>
+    <tableColumn id="69" xr3:uid="{CAFA48F7-3E71-4ABF-85AA-C204BEFB416D}" name="Responders" dataDxfId="4"/>
+    <tableColumn id="70" xr3:uid="{FFAC0A05-E364-43AA-92BA-93429634A70E}" name="Environment" dataDxfId="3"/>
+    <tableColumn id="71" xr3:uid="{CB472E9D-8FEA-47A6-AF70-2770CECC57E9}" name="Due date" dataDxfId="2"/>
+    <tableColumn id="72" xr3:uid="{0FE3B882-1D5C-4AEF-9A09-D55BCFA62810}" name="Progress" dataDxfId="1"/>
+    <tableColumn id="73" xr3:uid="{4AA73C79-27B6-45A1-9293-5C87DD4047D6}" name="Votes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3475,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BU76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:XFD76"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3783,16 +3783,16 @@
         <v>90</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>92</v>
+        <v>390</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>73</v>
@@ -3963,11 +3963,11 @@
         <v>88</v>
       </c>
       <c r="BJ2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BK2" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="BL2" s="4" t="s">
         <v>75</v>
       </c>
@@ -3993,56 +3993,56 @@
         <v>75</v>
       </c>
       <c r="BT2" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU2" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:73" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>74</v>
@@ -4087,7 +4087,7 @@
         <v>75</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V5" s="6" t="s">
         <v>80</v>
@@ -4099,7 +4099,7 @@
         <v>81</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z5" s="6" t="s">
         <v>75</v>
@@ -4120,7 +4120,7 @@
         <v>75</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG5" s="6" t="s">
         <v>75</v>
@@ -4138,7 +4138,7 @@
         <v>85</v>
       </c>
       <c r="AL5" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AM5" s="6" t="s">
         <v>75</v>
@@ -4156,7 +4156,7 @@
         <v>88</v>
       </c>
       <c r="AR5" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AS5" s="6" t="s">
         <v>78</v>
@@ -4168,7 +4168,7 @@
         <v>75</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AW5" s="6" t="s">
         <v>75</v>
@@ -4210,11 +4210,11 @@
         <v>88</v>
       </c>
       <c r="BJ5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BK5" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="BL5" s="6" t="s">
         <v>75</v>
       </c>
@@ -4240,63 +4240,63 @@
         <v>75</v>
       </c>
       <c r="BT5" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU5" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:73" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>74</v>
@@ -4341,7 +4341,7 @@
         <v>75</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V9" s="6" t="s">
         <v>80</v>
@@ -4353,7 +4353,7 @@
         <v>81</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z9" s="6" t="s">
         <v>75</v>
@@ -4374,7 +4374,7 @@
         <v>75</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG9" s="6" t="s">
         <v>75</v>
@@ -4392,7 +4392,7 @@
         <v>85</v>
       </c>
       <c r="AL9" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AM9" s="6" t="s">
         <v>75</v>
@@ -4410,7 +4410,7 @@
         <v>88</v>
       </c>
       <c r="AR9" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AS9" s="6" t="s">
         <v>78</v>
@@ -4422,7 +4422,7 @@
         <v>75</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AW9" s="6" t="s">
         <v>75</v>
@@ -4464,11 +4464,11 @@
         <v>88</v>
       </c>
       <c r="BJ9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK9" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BK9" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="BL9" s="6" t="s">
         <v>75</v>
       </c>
@@ -4494,52 +4494,52 @@
         <v>75</v>
       </c>
       <c r="BT9" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU9" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:73" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>74</v>
@@ -4584,7 +4584,7 @@
         <v>75</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>80</v>
@@ -4596,7 +4596,7 @@
         <v>81</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>75</v>
@@ -4617,7 +4617,7 @@
         <v>75</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG12" s="4" t="s">
         <v>75</v>
@@ -4635,7 +4635,7 @@
         <v>85</v>
       </c>
       <c r="AL12" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AM12" s="4" t="s">
         <v>75</v>
@@ -4653,7 +4653,7 @@
         <v>88</v>
       </c>
       <c r="AR12" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS12" s="4" t="s">
         <v>78</v>
@@ -4665,7 +4665,7 @@
         <v>75</v>
       </c>
       <c r="AV12" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AW12" s="4" t="s">
         <v>75</v>
@@ -4707,11 +4707,11 @@
         <v>88</v>
       </c>
       <c r="BJ12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BK12" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="BL12" s="4" t="s">
         <v>75</v>
       </c>
@@ -4737,41 +4737,41 @@
         <v>75</v>
       </c>
       <c r="BT12" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU12" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:73" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>74</v>
@@ -4816,7 +4816,7 @@
         <v>75</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>80</v>
@@ -4828,7 +4828,7 @@
         <v>81</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>75</v>
@@ -4849,7 +4849,7 @@
         <v>75</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG14" s="4" t="s">
         <v>75</v>
@@ -4867,7 +4867,7 @@
         <v>85</v>
       </c>
       <c r="AL14" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AM14" s="4" t="s">
         <v>75</v>
@@ -4885,7 +4885,7 @@
         <v>88</v>
       </c>
       <c r="AR14" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AS14" s="4" t="s">
         <v>78</v>
@@ -4897,7 +4897,7 @@
         <v>75</v>
       </c>
       <c r="AV14" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AW14" s="4" t="s">
         <v>75</v>
@@ -4939,11 +4939,11 @@
         <v>88</v>
       </c>
       <c r="BJ14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BK14" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="BL14" s="4" t="s">
         <v>75</v>
       </c>
@@ -4969,52 +4969,52 @@
         <v>75</v>
       </c>
       <c r="BT14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.3">
       <c r="C15" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:73" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>74</v>
@@ -5059,7 +5059,7 @@
         <v>75</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V17" s="6" t="s">
         <v>80</v>
@@ -5071,7 +5071,7 @@
         <v>81</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z17" s="6" t="s">
         <v>75</v>
@@ -5092,7 +5092,7 @@
         <v>75</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG17" s="6" t="s">
         <v>75</v>
@@ -5110,7 +5110,7 @@
         <v>85</v>
       </c>
       <c r="AL17" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM17" s="6" t="s">
         <v>75</v>
@@ -5128,7 +5128,7 @@
         <v>88</v>
       </c>
       <c r="AR17" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AS17" s="6" t="s">
         <v>78</v>
@@ -5140,7 +5140,7 @@
         <v>75</v>
       </c>
       <c r="AV17" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AW17" s="6" t="s">
         <v>75</v>
@@ -5182,11 +5182,11 @@
         <v>88</v>
       </c>
       <c r="BJ17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK17" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BK17" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="BL17" s="6" t="s">
         <v>75</v>
       </c>
@@ -5212,52 +5212,52 @@
         <v>75</v>
       </c>
       <c r="BT17" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU17" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C19" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:73" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>74</v>
@@ -5302,7 +5302,7 @@
         <v>75</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V20" s="4" t="s">
         <v>80</v>
@@ -5314,7 +5314,7 @@
         <v>81</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z20" s="4" t="s">
         <v>75</v>
@@ -5335,7 +5335,7 @@
         <v>75</v>
       </c>
       <c r="AF20" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG20" s="4" t="s">
         <v>75</v>
@@ -5353,7 +5353,7 @@
         <v>85</v>
       </c>
       <c r="AL20" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM20" s="4" t="s">
         <v>75</v>
@@ -5371,7 +5371,7 @@
         <v>88</v>
       </c>
       <c r="AR20" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AS20" s="4" t="s">
         <v>78</v>
@@ -5383,7 +5383,7 @@
         <v>75</v>
       </c>
       <c r="AV20" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AW20" s="4" t="s">
         <v>75</v>
@@ -5425,11 +5425,11 @@
         <v>88</v>
       </c>
       <c r="BJ20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BK20" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="BL20" s="4" t="s">
         <v>75</v>
       </c>
@@ -5455,52 +5455,52 @@
         <v>75</v>
       </c>
       <c r="BT20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C21" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:73" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>74</v>
@@ -5545,7 +5545,7 @@
         <v>75</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V23" s="6" t="s">
         <v>80</v>
@@ -5557,7 +5557,7 @@
         <v>81</v>
       </c>
       <c r="Y23" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z23" s="6" t="s">
         <v>75</v>
@@ -5578,7 +5578,7 @@
         <v>75</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG23" s="6" t="s">
         <v>75</v>
@@ -5596,7 +5596,7 @@
         <v>85</v>
       </c>
       <c r="AL23" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM23" s="6" t="s">
         <v>75</v>
@@ -5614,7 +5614,7 @@
         <v>88</v>
       </c>
       <c r="AR23" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AS23" s="6" t="s">
         <v>78</v>
@@ -5626,7 +5626,7 @@
         <v>75</v>
       </c>
       <c r="AV23" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AW23" s="6" t="s">
         <v>75</v>
@@ -5668,11 +5668,11 @@
         <v>88</v>
       </c>
       <c r="BJ23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK23" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BK23" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="BL23" s="6" t="s">
         <v>75</v>
       </c>
@@ -5698,52 +5698,52 @@
         <v>75</v>
       </c>
       <c r="BT23" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU23" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:73" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C25" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:73" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="C26" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>74</v>
@@ -5800,7 +5800,7 @@
         <v>81</v>
       </c>
       <c r="Y26" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z26" s="4" t="s">
         <v>75</v>
@@ -5839,29 +5839,29 @@
         <v>85</v>
       </c>
       <c r="AL26" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP26" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="AM26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP26" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="AQ26" s="4" t="s">
         <v>88</v>
       </c>
       <c r="AR26" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS26" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AS26" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="AT26" s="4" t="s">
         <v>75</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>75</v>
       </c>
       <c r="AV26" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AW26" s="4" t="s">
         <v>75</v>
@@ -5911,11 +5911,11 @@
         <v>88</v>
       </c>
       <c r="BJ26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BK26" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="BL26" s="4" t="s">
         <v>75</v>
       </c>
@@ -5941,41 +5941,41 @@
         <v>75</v>
       </c>
       <c r="BT26" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU26" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="E28" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>74</v>
@@ -6032,7 +6032,7 @@
         <v>81</v>
       </c>
       <c r="Y28" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z28" s="4" t="s">
         <v>75</v>
@@ -6071,28 +6071,28 @@
         <v>85</v>
       </c>
       <c r="AL28" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP28" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="AM28" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN28" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO28" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP28" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="AQ28" s="4" t="s">
         <v>88</v>
       </c>
       <c r="AR28" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AS28" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AT28" s="4" t="s">
         <v>75</v>
@@ -6101,7 +6101,7 @@
         <v>75</v>
       </c>
       <c r="AV28" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AW28" s="4" t="s">
         <v>75</v>
@@ -6143,11 +6143,11 @@
         <v>88</v>
       </c>
       <c r="BJ28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK28" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BK28" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="BL28" s="4" t="s">
         <v>75</v>
       </c>
@@ -6173,52 +6173,52 @@
         <v>75</v>
       </c>
       <c r="BT28" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU28" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C29" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:73" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="C31" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>74</v>
@@ -6263,7 +6263,7 @@
         <v>75</v>
       </c>
       <c r="U31" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V31" s="6" t="s">
         <v>80</v>
@@ -6275,7 +6275,7 @@
         <v>81</v>
       </c>
       <c r="Y31" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Z31" s="6" t="s">
         <v>75</v>
@@ -6296,7 +6296,7 @@
         <v>75</v>
       </c>
       <c r="AF31" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG31" s="6" t="s">
         <v>75</v>
@@ -6314,7 +6314,7 @@
         <v>85</v>
       </c>
       <c r="AL31" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AM31" s="6" t="s">
         <v>75</v>
@@ -6332,7 +6332,7 @@
         <v>88</v>
       </c>
       <c r="AR31" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AS31" s="6" t="s">
         <v>78</v>
@@ -6344,7 +6344,7 @@
         <v>75</v>
       </c>
       <c r="AV31" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AW31" s="6" t="s">
         <v>75</v>
@@ -6386,11 +6386,11 @@
         <v>88</v>
       </c>
       <c r="BJ31" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK31" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BK31" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="BL31" s="6" t="s">
         <v>75</v>
       </c>
@@ -6416,52 +6416,52 @@
         <v>75</v>
       </c>
       <c r="BT31" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU31" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C33" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="F34" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>74</v>
@@ -6518,7 +6518,7 @@
         <v>81</v>
       </c>
       <c r="Y34" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Z34" s="4" t="s">
         <v>75</v>
@@ -6557,28 +6557,28 @@
         <v>85</v>
       </c>
       <c r="AL34" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP34" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="AM34" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN34" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO34" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP34" s="4" t="s">
-        <v>230</v>
       </c>
       <c r="AQ34" s="4" t="s">
         <v>88</v>
       </c>
       <c r="AR34" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AS34" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AT34" s="4" t="s">
         <v>75</v>
@@ -6587,7 +6587,7 @@
         <v>75</v>
       </c>
       <c r="AV34" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AW34" s="4" t="s">
         <v>75</v>
@@ -6629,11 +6629,11 @@
         <v>88</v>
       </c>
       <c r="BJ34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BK34" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="BL34" s="4" t="s">
         <v>75</v>
       </c>
@@ -6659,52 +6659,52 @@
         <v>75</v>
       </c>
       <c r="BT34" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU34" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C35" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C36" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:73" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="F37" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>74</v>
@@ -6749,7 +6749,7 @@
         <v>75</v>
       </c>
       <c r="U37" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V37" s="6" t="s">
         <v>80</v>
@@ -6761,7 +6761,7 @@
         <v>81</v>
       </c>
       <c r="Y37" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Z37" s="6" t="s">
         <v>75</v>
@@ -6782,7 +6782,7 @@
         <v>75</v>
       </c>
       <c r="AF37" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG37" s="6" t="s">
         <v>75</v>
@@ -6800,7 +6800,7 @@
         <v>85</v>
       </c>
       <c r="AL37" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM37" s="6" t="s">
         <v>75</v>
@@ -6818,7 +6818,7 @@
         <v>88</v>
       </c>
       <c r="AR37" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AS37" s="6" t="s">
         <v>78</v>
@@ -6830,7 +6830,7 @@
         <v>75</v>
       </c>
       <c r="AV37" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AW37" s="6" t="s">
         <v>75</v>
@@ -6872,11 +6872,11 @@
         <v>88</v>
       </c>
       <c r="BJ37" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK37" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BK37" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="BL37" s="6" t="s">
         <v>75</v>
       </c>
@@ -6902,41 +6902,41 @@
         <v>75</v>
       </c>
       <c r="BT37" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU37" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C38" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:73" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>257</v>
-      </c>
       <c r="C39" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>74</v>
@@ -6981,7 +6981,7 @@
         <v>75</v>
       </c>
       <c r="U39" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V39" s="6" t="s">
         <v>80</v>
@@ -6993,7 +6993,7 @@
         <v>81</v>
       </c>
       <c r="Y39" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z39" s="6" t="s">
         <v>75</v>
@@ -7014,7 +7014,7 @@
         <v>75</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG39" s="6" t="s">
         <v>75</v>
@@ -7032,7 +7032,7 @@
         <v>85</v>
       </c>
       <c r="AL39" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM39" s="6" t="s">
         <v>75</v>
@@ -7050,7 +7050,7 @@
         <v>88</v>
       </c>
       <c r="AR39" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AS39" s="6" t="s">
         <v>78</v>
@@ -7062,7 +7062,7 @@
         <v>75</v>
       </c>
       <c r="AV39" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AW39" s="6" t="s">
         <v>75</v>
@@ -7104,11 +7104,11 @@
         <v>88</v>
       </c>
       <c r="BJ39" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK39" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BK39" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="BL39" s="6" t="s">
         <v>75</v>
       </c>
@@ -7134,52 +7134,52 @@
         <v>75</v>
       </c>
       <c r="BT39" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU39" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C41" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="E42" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>74</v>
@@ -7236,7 +7236,7 @@
         <v>81</v>
       </c>
       <c r="Y42" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z42" s="4" t="s">
         <v>75</v>
@@ -7275,28 +7275,28 @@
         <v>85</v>
       </c>
       <c r="AL42" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP42" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="AM42" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN42" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO42" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP42" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="AQ42" s="4" t="s">
         <v>88</v>
       </c>
       <c r="AR42" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AS42" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AT42" s="4" t="s">
         <v>75</v>
@@ -7305,7 +7305,7 @@
         <v>75</v>
       </c>
       <c r="AV42" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AW42" s="4" t="s">
         <v>75</v>
@@ -7347,11 +7347,11 @@
         <v>88</v>
       </c>
       <c r="BJ42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK42" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BK42" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="BL42" s="4" t="s">
         <v>75</v>
       </c>
@@ -7377,52 +7377,52 @@
         <v>75</v>
       </c>
       <c r="BT42" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU42" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:73" x14ac:dyDescent="0.3">
       <c r="C43" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C44" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:73" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>277</v>
-      </c>
       <c r="C45" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>74</v>
@@ -7467,7 +7467,7 @@
         <v>75</v>
       </c>
       <c r="U45" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V45" s="6" t="s">
         <v>80</v>
@@ -7479,7 +7479,7 @@
         <v>81</v>
       </c>
       <c r="Y45" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z45" s="6" t="s">
         <v>75</v>
@@ -7500,7 +7500,7 @@
         <v>75</v>
       </c>
       <c r="AF45" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG45" s="6" t="s">
         <v>75</v>
@@ -7518,7 +7518,7 @@
         <v>85</v>
       </c>
       <c r="AL45" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AM45" s="6" t="s">
         <v>75</v>
@@ -7536,7 +7536,7 @@
         <v>88</v>
       </c>
       <c r="AR45" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AS45" s="6" t="s">
         <v>78</v>
@@ -7548,7 +7548,7 @@
         <v>75</v>
       </c>
       <c r="AV45" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AW45" s="6" t="s">
         <v>75</v>
@@ -7590,11 +7590,11 @@
         <v>88</v>
       </c>
       <c r="BJ45" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK45" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BK45" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="BL45" s="6" t="s">
         <v>75</v>
       </c>
@@ -7620,52 +7620,52 @@
         <v>75</v>
       </c>
       <c r="BT45" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU45" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C46" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C47" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>288</v>
-      </c>
       <c r="E48" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>74</v>
@@ -7710,7 +7710,7 @@
         <v>75</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V48" s="4" t="s">
         <v>80</v>
@@ -7722,7 +7722,7 @@
         <v>81</v>
       </c>
       <c r="Y48" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z48" s="4" t="s">
         <v>75</v>
@@ -7743,7 +7743,7 @@
         <v>75</v>
       </c>
       <c r="AF48" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG48" s="4" t="s">
         <v>75</v>
@@ -7761,7 +7761,7 @@
         <v>85</v>
       </c>
       <c r="AL48" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AM48" s="4" t="s">
         <v>75</v>
@@ -7779,7 +7779,7 @@
         <v>88</v>
       </c>
       <c r="AR48" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AS48" s="4" t="s">
         <v>78</v>
@@ -7791,7 +7791,7 @@
         <v>75</v>
       </c>
       <c r="AV48" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AW48" s="4" t="s">
         <v>75</v>
@@ -7833,11 +7833,11 @@
         <v>88</v>
       </c>
       <c r="BJ48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK48" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BK48" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="BL48" s="4" t="s">
         <v>75</v>
       </c>
@@ -7863,10 +7863,10 @@
         <v>75</v>
       </c>
       <c r="BT48" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU48" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:73" x14ac:dyDescent="0.3">
@@ -7874,41 +7874,41 @@
         <v>75</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:73" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="C50" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:73" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="E51" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>74</v>
@@ -7953,7 +7953,7 @@
         <v>75</v>
       </c>
       <c r="U51" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V51" s="6" t="s">
         <v>80</v>
@@ -7965,7 +7965,7 @@
         <v>81</v>
       </c>
       <c r="Y51" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z51" s="6" t="s">
         <v>75</v>
@@ -7986,7 +7986,7 @@
         <v>75</v>
       </c>
       <c r="AF51" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG51" s="6" t="s">
         <v>75</v>
@@ -8004,7 +8004,7 @@
         <v>85</v>
       </c>
       <c r="AL51" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM51" s="6" t="s">
         <v>75</v>
@@ -8022,7 +8022,7 @@
         <v>88</v>
       </c>
       <c r="AR51" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AS51" s="6" t="s">
         <v>78</v>
@@ -8034,7 +8034,7 @@
         <v>75</v>
       </c>
       <c r="AV51" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AW51" s="6" t="s">
         <v>75</v>
@@ -8076,11 +8076,11 @@
         <v>88</v>
       </c>
       <c r="BJ51" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK51" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BK51" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="BL51" s="6" t="s">
         <v>75</v>
       </c>
@@ -8106,52 +8106,52 @@
         <v>75</v>
       </c>
       <c r="BT51" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU51" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C52" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C53" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>310</v>
-      </c>
       <c r="C54" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>74</v>
@@ -8196,7 +8196,7 @@
         <v>75</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V54" s="4" t="s">
         <v>80</v>
@@ -8208,7 +8208,7 @@
         <v>81</v>
       </c>
       <c r="Y54" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z54" s="4" t="s">
         <v>75</v>
@@ -8229,7 +8229,7 @@
         <v>75</v>
       </c>
       <c r="AF54" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG54" s="4" t="s">
         <v>75</v>
@@ -8247,7 +8247,7 @@
         <v>85</v>
       </c>
       <c r="AL54" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AM54" s="4" t="s">
         <v>75</v>
@@ -8265,7 +8265,7 @@
         <v>88</v>
       </c>
       <c r="AR54" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AS54" s="4" t="s">
         <v>78</v>
@@ -8277,7 +8277,7 @@
         <v>75</v>
       </c>
       <c r="AV54" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AW54" s="4" t="s">
         <v>75</v>
@@ -8319,11 +8319,11 @@
         <v>88</v>
       </c>
       <c r="BJ54" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK54" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BK54" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="BL54" s="4" t="s">
         <v>75</v>
       </c>
@@ -8349,52 +8349,52 @@
         <v>75</v>
       </c>
       <c r="BT54" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU54" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C55" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C56" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:73" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="C57" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>288</v>
-      </c>
       <c r="E57" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>74</v>
@@ -8451,7 +8451,7 @@
         <v>81</v>
       </c>
       <c r="Y57" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Z57" s="6" t="s">
         <v>75</v>
@@ -8490,28 +8490,28 @@
         <v>85</v>
       </c>
       <c r="AL57" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AM57" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN57" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO57" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP57" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="AM57" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN57" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO57" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP57" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="AQ57" s="6" t="s">
         <v>88</v>
       </c>
       <c r="AR57" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AS57" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AT57" s="6" t="s">
         <v>75</v>
@@ -8520,7 +8520,7 @@
         <v>75</v>
       </c>
       <c r="AV57" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AW57" s="6" t="s">
         <v>75</v>
@@ -8562,11 +8562,11 @@
         <v>88</v>
       </c>
       <c r="BJ57" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK57" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BK57" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="BL57" s="6" t="s">
         <v>75</v>
       </c>
@@ -8592,52 +8592,52 @@
         <v>75</v>
       </c>
       <c r="BT57" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU57" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:73" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C59" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="60" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>326</v>
-      </c>
       <c r="C60" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="E60" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>74</v>
@@ -8694,7 +8694,7 @@
         <v>81</v>
       </c>
       <c r="Y60" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Z60" s="4" t="s">
         <v>75</v>
@@ -8733,28 +8733,28 @@
         <v>85</v>
       </c>
       <c r="AL60" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="AM60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP60" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="AM60" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN60" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO60" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP60" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="AQ60" s="4" t="s">
         <v>88</v>
       </c>
       <c r="AR60" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AS60" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AT60" s="4" t="s">
         <v>75</v>
@@ -8763,7 +8763,7 @@
         <v>75</v>
       </c>
       <c r="AV60" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AW60" s="4" t="s">
         <v>75</v>
@@ -8805,11 +8805,11 @@
         <v>88</v>
       </c>
       <c r="BJ60" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK60" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BK60" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="BL60" s="4" t="s">
         <v>75</v>
       </c>
@@ -8835,52 +8835,52 @@
         <v>75</v>
       </c>
       <c r="BT60" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU60" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:73" x14ac:dyDescent="0.3">
       <c r="C61" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="E61" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C62" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:73" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>336</v>
-      </c>
       <c r="C63" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>74</v>
@@ -8925,7 +8925,7 @@
         <v>75</v>
       </c>
       <c r="U63" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V63" s="6" t="s">
         <v>80</v>
@@ -8937,7 +8937,7 @@
         <v>81</v>
       </c>
       <c r="Y63" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Z63" s="6" t="s">
         <v>75</v>
@@ -8958,7 +8958,7 @@
         <v>75</v>
       </c>
       <c r="AF63" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG63" s="6" t="s">
         <v>75</v>
@@ -8976,7 +8976,7 @@
         <v>85</v>
       </c>
       <c r="AL63" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM63" s="6" t="s">
         <v>75</v>
@@ -8994,7 +8994,7 @@
         <v>88</v>
       </c>
       <c r="AR63" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AS63" s="6" t="s">
         <v>78</v>
@@ -9006,7 +9006,7 @@
         <v>75</v>
       </c>
       <c r="AV63" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AW63" s="6" t="s">
         <v>75</v>
@@ -9048,11 +9048,11 @@
         <v>88</v>
       </c>
       <c r="BJ63" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK63" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BK63" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="BL63" s="6" t="s">
         <v>75</v>
       </c>
@@ -9078,52 +9078,52 @@
         <v>75</v>
       </c>
       <c r="BT63" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU63" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C64" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C65" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="C66" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>348</v>
-      </c>
       <c r="F66" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>74</v>
@@ -9168,7 +9168,7 @@
         <v>75</v>
       </c>
       <c r="U66" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V66" s="4" t="s">
         <v>80</v>
@@ -9180,7 +9180,7 @@
         <v>81</v>
       </c>
       <c r="Y66" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z66" s="4" t="s">
         <v>75</v>
@@ -9201,7 +9201,7 @@
         <v>75</v>
       </c>
       <c r="AF66" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG66" s="4" t="s">
         <v>75</v>
@@ -9219,7 +9219,7 @@
         <v>85</v>
       </c>
       <c r="AL66" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AM66" s="4" t="s">
         <v>75</v>
@@ -9237,7 +9237,7 @@
         <v>88</v>
       </c>
       <c r="AR66" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AS66" s="4" t="s">
         <v>78</v>
@@ -9249,7 +9249,7 @@
         <v>75</v>
       </c>
       <c r="AV66" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AW66" s="4" t="s">
         <v>75</v>
@@ -9291,11 +9291,11 @@
         <v>88</v>
       </c>
       <c r="BJ66" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK66" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BK66" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="BL66" s="4" t="s">
         <v>75</v>
       </c>
@@ -9321,41 +9321,41 @@
         <v>75</v>
       </c>
       <c r="BT66" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU66" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C67" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:73" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D68" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="F68" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>74</v>
@@ -9400,7 +9400,7 @@
         <v>75</v>
       </c>
       <c r="U68" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V68" s="4" t="s">
         <v>80</v>
@@ -9412,7 +9412,7 @@
         <v>81</v>
       </c>
       <c r="Y68" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Z68" s="4" t="s">
         <v>75</v>
@@ -9433,7 +9433,7 @@
         <v>75</v>
       </c>
       <c r="AF68" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG68" s="4" t="s">
         <v>75</v>
@@ -9451,7 +9451,7 @@
         <v>85</v>
       </c>
       <c r="AL68" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AM68" s="4" t="s">
         <v>75</v>
@@ -9469,7 +9469,7 @@
         <v>88</v>
       </c>
       <c r="AR68" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS68" s="4" t="s">
         <v>78</v>
@@ -9481,7 +9481,7 @@
         <v>75</v>
       </c>
       <c r="AV68" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AW68" s="4" t="s">
         <v>75</v>
@@ -9523,11 +9523,11 @@
         <v>88</v>
       </c>
       <c r="BJ68" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK68" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BK68" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="BL68" s="4" t="s">
         <v>75</v>
       </c>
@@ -9553,52 +9553,52 @@
         <v>75</v>
       </c>
       <c r="BT68" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU68" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C69" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="E69" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C70" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="71" spans="1:73" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B71" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>375</v>
-      </c>
       <c r="E71" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>74</v>
@@ -9643,7 +9643,7 @@
         <v>75</v>
       </c>
       <c r="U71" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V71" s="6" t="s">
         <v>80</v>
@@ -9655,7 +9655,7 @@
         <v>81</v>
       </c>
       <c r="Y71" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Z71" s="6" t="s">
         <v>75</v>
@@ -9676,7 +9676,7 @@
         <v>75</v>
       </c>
       <c r="AF71" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG71" s="6" t="s">
         <v>75</v>
@@ -9694,7 +9694,7 @@
         <v>85</v>
       </c>
       <c r="AL71" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AM71" s="6" t="s">
         <v>75</v>
@@ -9712,7 +9712,7 @@
         <v>88</v>
       </c>
       <c r="AR71" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AS71" s="6" t="s">
         <v>78</v>
@@ -9724,7 +9724,7 @@
         <v>75</v>
       </c>
       <c r="AV71" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AW71" s="6" t="s">
         <v>75</v>
@@ -9766,11 +9766,11 @@
         <v>88</v>
       </c>
       <c r="BJ71" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK71" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BK71" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="BL71" s="6" t="s">
         <v>75</v>
       </c>
@@ -9796,52 +9796,52 @@
         <v>75</v>
       </c>
       <c r="BT71" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU71" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:73" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:73" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C73" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>379</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="74" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>388</v>
-      </c>
       <c r="F74" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>74</v>
@@ -9898,7 +9898,7 @@
         <v>81</v>
       </c>
       <c r="Y74" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Z74" s="4" t="s">
         <v>75</v>
@@ -9937,28 +9937,28 @@
         <v>85</v>
       </c>
       <c r="AL74" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM74" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN74" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO74" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP74" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="AM74" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN74" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO74" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP74" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="AQ74" s="4" t="s">
         <v>88</v>
       </c>
       <c r="AR74" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AS74" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AT74" s="4" t="s">
         <v>75</v>
@@ -9967,7 +9967,7 @@
         <v>75</v>
       </c>
       <c r="AV74" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AW74" s="4" t="s">
         <v>75</v>
@@ -10009,11 +10009,11 @@
         <v>88</v>
       </c>
       <c r="BJ74" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK74" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BK74" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="BL74" s="4" t="s">
         <v>75</v>
       </c>
@@ -10039,21 +10039,21 @@
         <v>75</v>
       </c>
       <c r="BT74" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU74" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C75" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="76" spans="1:73" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
